--- a/Lucie_USF_and_SURF_Data.xlsx
+++ b/Lucie_USF_and_SURF_Data.xlsx
@@ -1947,7 +1947,7 @@
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="78">
-        <v>298</v>
+        <v>0</v>
       </c>
       <c r="J10" s="79">
         <v>0.489</v>
@@ -1987,7 +1987,7 @@
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="78">
-        <v>298</v>
+        <v>0</v>
       </c>
       <c r="J11" s="79">
         <v>0.489</v>
@@ -2027,7 +2027,7 @@
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="78">
-        <v>298</v>
+        <v>0</v>
       </c>
       <c r="J12" s="79">
         <v>0.604</v>
@@ -2067,7 +2067,7 @@
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="78">
-        <v>298</v>
+        <v>0</v>
       </c>
       <c r="J13" s="79">
         <v>0.532</v>
@@ -2107,7 +2107,7 @@
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="78">
-        <v>298</v>
+        <v>0</v>
       </c>
       <c r="J14" s="79">
         <v>0.535</v>
@@ -2147,7 +2147,7 @@
       </c>
       <c r="H15" s="4"/>
       <c r="I15" s="78">
-        <v>298</v>
+        <v>0</v>
       </c>
       <c r="J15" s="79">
         <v>0.532</v>
@@ -2187,7 +2187,7 @@
       </c>
       <c r="H16" s="4"/>
       <c r="I16" s="78">
-        <v>298</v>
+        <v>0</v>
       </c>
       <c r="J16" s="79">
         <v>0.986</v>
@@ -2227,7 +2227,7 @@
       </c>
       <c r="H17" s="4"/>
       <c r="I17" s="78">
-        <v>298</v>
+        <v>0</v>
       </c>
       <c r="J17" s="79">
         <v>1.071</v>
@@ -2267,7 +2267,7 @@
       </c>
       <c r="H18" s="4"/>
       <c r="I18" s="78">
-        <v>298</v>
+        <v>0</v>
       </c>
       <c r="J18" s="79">
         <v>0.855</v>
@@ -2307,7 +2307,7 @@
       </c>
       <c r="H19" s="4"/>
       <c r="I19" s="78">
-        <v>298</v>
+        <v>0</v>
       </c>
       <c r="J19" s="79">
         <v>0.75</v>
@@ -2347,7 +2347,7 @@
       </c>
       <c r="H20" s="4"/>
       <c r="I20" s="78">
-        <v>298</v>
+        <v>0</v>
       </c>
       <c r="J20" s="79">
         <v>0.607</v>
@@ -2387,7 +2387,7 @@
       </c>
       <c r="H21" s="4"/>
       <c r="I21" s="78">
-        <v>298</v>
+        <v>0</v>
       </c>
       <c r="J21" s="79">
         <v>1.113</v>
@@ -2427,7 +2427,7 @@
       </c>
       <c r="H22" s="4"/>
       <c r="I22" s="78">
-        <v>298</v>
+        <v>0</v>
       </c>
       <c r="J22" s="79">
         <v>1.236</v>
@@ -2467,7 +2467,7 @@
       </c>
       <c r="H23" s="4"/>
       <c r="I23" s="78">
-        <v>298</v>
+        <v>0</v>
       </c>
       <c r="J23" s="79">
         <v>1.276</v>
@@ -2509,7 +2509,7 @@
         <v>86</v>
       </c>
       <c r="I24" s="78">
-        <v>298</v>
+        <v>0</v>
       </c>
       <c r="J24" s="79">
         <v>1.178</v>
@@ -2553,7 +2553,7 @@
         <v>86</v>
       </c>
       <c r="I25" s="78">
-        <v>298</v>
+        <v>0</v>
       </c>
       <c r="J25" s="79">
         <v>1.006</v>
@@ -2597,7 +2597,7 @@
         <v>86</v>
       </c>
       <c r="I26" s="78">
-        <v>298</v>
+        <v>0</v>
       </c>
       <c r="J26" s="79">
         <v>0.951</v>
@@ -2641,7 +2641,7 @@
         <v>86</v>
       </c>
       <c r="I27" s="78">
-        <v>298</v>
+        <v>0</v>
       </c>
       <c r="J27" s="79">
         <v>1.158</v>
@@ -2685,7 +2685,7 @@
         <v>86</v>
       </c>
       <c r="I28" s="78">
-        <v>298</v>
+        <v>0</v>
       </c>
       <c r="J28" s="79">
         <v>1.033</v>
@@ -2727,7 +2727,7 @@
       </c>
       <c r="H29" s="4"/>
       <c r="I29" s="78">
-        <v>298</v>
+        <v>0</v>
       </c>
       <c r="J29" s="79">
         <v>1.583</v>
@@ -2767,7 +2767,7 @@
       </c>
       <c r="H30" s="4"/>
       <c r="I30" s="78">
-        <v>298</v>
+        <v>0</v>
       </c>
       <c r="J30" s="79">
         <v>1.323</v>
@@ -2807,7 +2807,7 @@
       </c>
       <c r="H31" s="4"/>
       <c r="I31" s="78">
-        <v>298</v>
+        <v>0</v>
       </c>
       <c r="J31" s="79">
         <v>1.339</v>
@@ -2847,7 +2847,7 @@
       </c>
       <c r="H32" s="4"/>
       <c r="I32" s="78">
-        <v>298</v>
+        <v>0</v>
       </c>
       <c r="J32" s="79">
         <v>1.34</v>
@@ -2887,7 +2887,7 @@
       </c>
       <c r="H33" s="4"/>
       <c r="I33" s="78">
-        <v>298</v>
+        <v>0</v>
       </c>
       <c r="J33" s="79">
         <v>1.32</v>
@@ -2927,7 +2927,7 @@
       </c>
       <c r="H34" s="4"/>
       <c r="I34" s="78">
-        <v>298</v>
+        <v>0</v>
       </c>
       <c r="J34" s="79">
         <v>1.04</v>
@@ -2967,7 +2967,7 @@
       </c>
       <c r="H35" s="4"/>
       <c r="I35" s="78">
-        <v>298</v>
+        <v>0</v>
       </c>
       <c r="J35" s="79">
         <v>1.639</v>
@@ -3007,7 +3007,7 @@
       </c>
       <c r="H36" s="4"/>
       <c r="I36" s="78">
-        <v>298</v>
+        <v>0</v>
       </c>
       <c r="J36" s="79">
         <v>1.749</v>
@@ -3047,7 +3047,7 @@
       </c>
       <c r="H37" s="4"/>
       <c r="I37" s="78">
-        <v>298</v>
+        <v>0</v>
       </c>
       <c r="J37" s="79">
         <v>1.712</v>
@@ -3089,7 +3089,7 @@
         <v>86</v>
       </c>
       <c r="I38" s="78">
-        <v>298</v>
+        <v>0</v>
       </c>
       <c r="J38" s="79">
         <v>1.743</v>
@@ -3131,7 +3131,7 @@
       </c>
       <c r="H39" s="4"/>
       <c r="I39" s="78">
-        <v>298</v>
+        <v>0</v>
       </c>
       <c r="J39" s="79">
         <v>1.689</v>
@@ -3171,7 +3171,7 @@
       </c>
       <c r="H40" s="4"/>
       <c r="I40" s="78">
-        <v>298</v>
+        <v>0</v>
       </c>
       <c r="J40" s="79">
         <v>1.632</v>
@@ -3251,7 +3251,7 @@
         <v>86</v>
       </c>
       <c r="I42" s="78">
-        <v>298</v>
+        <v>0</v>
       </c>
       <c r="J42" s="79">
         <v>1.897</v>
@@ -3293,7 +3293,7 @@
       </c>
       <c r="H43" s="4"/>
       <c r="I43" s="78">
-        <v>298</v>
+        <v>0</v>
       </c>
       <c r="J43" s="79">
         <v>1.899</v>
@@ -3333,7 +3333,7 @@
       </c>
       <c r="H44" s="4"/>
       <c r="I44" s="78">
-        <v>298</v>
+        <v>0</v>
       </c>
       <c r="J44" s="79">
         <v>2.041</v>
@@ -3373,7 +3373,7 @@
       </c>
       <c r="H45" s="4"/>
       <c r="I45" s="78">
-        <v>298</v>
+        <v>0</v>
       </c>
       <c r="J45" s="79">
         <v>2.005</v>
@@ -3413,7 +3413,7 @@
       </c>
       <c r="H46" s="4"/>
       <c r="I46" s="78">
-        <v>298</v>
+        <v>0</v>
       </c>
       <c r="J46" s="79">
         <v>2.014</v>
@@ -3453,7 +3453,7 @@
       </c>
       <c r="H47" s="4"/>
       <c r="I47" s="78">
-        <v>298</v>
+        <v>0</v>
       </c>
       <c r="J47" s="79">
         <v>2.053</v>
@@ -3493,7 +3493,7 @@
       </c>
       <c r="H48" s="4"/>
       <c r="I48" s="78">
-        <v>298</v>
+        <v>0</v>
       </c>
       <c r="J48" s="79">
         <v>2.546</v>
@@ -3533,7 +3533,7 @@
       </c>
       <c r="H49" s="4"/>
       <c r="I49" s="78">
-        <v>298</v>
+        <v>0</v>
       </c>
       <c r="J49" s="79">
         <v>2.616</v>
@@ -3575,7 +3575,7 @@
         <v>86</v>
       </c>
       <c r="I50" s="78">
-        <v>298</v>
+        <v>0</v>
       </c>
       <c r="J50" s="79">
         <v>2.397</v>
@@ -3617,7 +3617,7 @@
       </c>
       <c r="H51" s="4"/>
       <c r="I51" s="78">
-        <v>298</v>
+        <v>0</v>
       </c>
       <c r="J51" s="79">
         <v>2.294</v>
@@ -3657,7 +3657,7 @@
       </c>
       <c r="H52" s="4"/>
       <c r="I52" s="78">
-        <v>298</v>
+        <v>0</v>
       </c>
       <c r="J52" s="79">
         <v>2.1</v>
@@ -3697,7 +3697,7 @@
       </c>
       <c r="H53" s="4"/>
       <c r="I53" s="78">
-        <v>298</v>
+        <v>0</v>
       </c>
       <c r="J53" s="79">
         <v>2.631</v>
@@ -3737,7 +3737,7 @@
       </c>
       <c r="H54" s="4"/>
       <c r="I54" s="78">
-        <v>298</v>
+        <v>0</v>
       </c>
       <c r="J54" s="79">
         <v>2.858</v>
@@ -3777,7 +3777,7 @@
       </c>
       <c r="H55" s="4"/>
       <c r="I55" s="78">
-        <v>298</v>
+        <v>0</v>
       </c>
       <c r="J55" s="79">
         <v>2.931</v>
@@ -3817,7 +3817,7 @@
       </c>
       <c r="H56" s="4"/>
       <c r="I56" s="78">
-        <v>298</v>
+        <v>0</v>
       </c>
       <c r="J56" s="79">
         <v>2.664</v>
@@ -3857,7 +3857,7 @@
       </c>
       <c r="H57" s="4"/>
       <c r="I57" s="78">
-        <v>298</v>
+        <v>0</v>
       </c>
       <c r="J57" s="79">
         <v>2.569</v>
@@ -3899,7 +3899,7 @@
         <v>86</v>
       </c>
       <c r="I58" s="78">
-        <v>298</v>
+        <v>0</v>
       </c>
       <c r="J58" s="79">
         <v>2.508</v>
@@ -3941,7 +3941,7 @@
       </c>
       <c r="H59" s="4"/>
       <c r="I59" s="78">
-        <v>298</v>
+        <v>0</v>
       </c>
       <c r="J59" s="79">
         <v>2.7</v>
@@ -3981,7 +3981,7 @@
       </c>
       <c r="H60" s="4"/>
       <c r="I60" s="78">
-        <v>298</v>
+        <v>0</v>
       </c>
       <c r="J60" s="79">
         <v>2.592</v>
@@ -4021,7 +4021,7 @@
       </c>
       <c r="H61" s="4"/>
       <c r="I61" s="78">
-        <v>298</v>
+        <v>0</v>
       </c>
       <c r="J61" s="79">
         <v>2.952</v>
@@ -4061,7 +4061,7 @@
       </c>
       <c r="H62" s="4"/>
       <c r="I62" s="78">
-        <v>298</v>
+        <v>0</v>
       </c>
       <c r="J62" s="79">
         <v>2.841</v>
@@ -4101,7 +4101,7 @@
       </c>
       <c r="H63" s="4"/>
       <c r="I63" s="78">
-        <v>298</v>
+        <v>0</v>
       </c>
       <c r="J63" s="79">
         <v>2.993</v>
@@ -4141,7 +4141,7 @@
       </c>
       <c r="H64" s="4"/>
       <c r="I64" s="78">
-        <v>298</v>
+        <v>0</v>
       </c>
       <c r="J64" s="79">
         <v>3.022</v>
@@ -4181,7 +4181,7 @@
       </c>
       <c r="H65" s="4"/>
       <c r="I65" s="78">
-        <v>298</v>
+        <v>0</v>
       </c>
       <c r="J65" s="79">
         <v>2.967</v>
@@ -4221,7 +4221,7 @@
       </c>
       <c r="H66" s="4"/>
       <c r="I66" s="78">
-        <v>298</v>
+        <v>0</v>
       </c>
       <c r="J66" s="79">
         <v>2.84</v>
@@ -4261,7 +4261,7 @@
       </c>
       <c r="H67" s="4"/>
       <c r="I67" s="78">
-        <v>298</v>
+        <v>0</v>
       </c>
       <c r="J67" s="79">
         <v>2.976</v>
@@ -4301,7 +4301,7 @@
       </c>
       <c r="H68" s="4"/>
       <c r="I68" s="78">
-        <v>298</v>
+        <v>0</v>
       </c>
       <c r="J68" s="79">
         <v>3.092</v>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="H69" s="4"/>
       <c r="I69" s="78">
-        <v>298</v>
+        <v>0</v>
       </c>
       <c r="J69" s="79">
         <v>3.1</v>
@@ -4381,7 +4381,7 @@
       </c>
       <c r="H70" s="4"/>
       <c r="I70" s="78">
-        <v>298</v>
+        <v>0</v>
       </c>
       <c r="J70" s="79">
         <v>3.054</v>
@@ -4421,7 +4421,7 @@
       </c>
       <c r="H71" s="4"/>
       <c r="I71" s="78">
-        <v>298</v>
+        <v>0</v>
       </c>
       <c r="J71" s="79">
         <v>3.07</v>
@@ -4461,7 +4461,7 @@
       </c>
       <c r="H72" s="4"/>
       <c r="I72" s="78">
-        <v>298</v>
+        <v>0</v>
       </c>
       <c r="J72" s="79">
         <v>3.077</v>
@@ -4535,7 +4535,7 @@
       </c>
       <c r="H74" s="4"/>
       <c r="I74" s="78">
-        <v>298</v>
+        <v>0</v>
       </c>
       <c r="J74" s="79">
         <v>3.88</v>
@@ -4573,7 +4573,7 @@
       </c>
       <c r="H75" s="4"/>
       <c r="I75" s="78">
-        <v>298</v>
+        <v>0</v>
       </c>
       <c r="J75" s="79">
         <v>3.886</v>
@@ -4611,7 +4611,7 @@
       </c>
       <c r="H76" s="4"/>
       <c r="I76" s="78">
-        <v>298</v>
+        <v>0</v>
       </c>
       <c r="J76" s="79">
         <v>3.379</v>
@@ -4649,7 +4649,7 @@
       </c>
       <c r="H77" s="4"/>
       <c r="I77" s="78">
-        <v>298</v>
+        <v>0</v>
       </c>
       <c r="J77" s="79">
         <v>3.77</v>
@@ -4687,7 +4687,7 @@
       </c>
       <c r="H78" s="4"/>
       <c r="I78" s="78">
-        <v>298</v>
+        <v>0</v>
       </c>
       <c r="J78" s="79">
         <v>3.765</v>
@@ -4725,7 +4725,7 @@
       </c>
       <c r="H79" s="4"/>
       <c r="I79" s="78">
-        <v>298</v>
+        <v>0</v>
       </c>
       <c r="J79" s="79">
         <v>3.859</v>
@@ -4763,7 +4763,7 @@
       </c>
       <c r="H80" s="4"/>
       <c r="I80" s="78">
-        <v>298</v>
+        <v>0</v>
       </c>
       <c r="J80" s="79">
         <v>2.583</v>
@@ -4801,7 +4801,7 @@
       </c>
       <c r="H81" s="4"/>
       <c r="I81" s="78">
-        <v>298</v>
+        <v>0</v>
       </c>
       <c r="J81" s="79">
         <v>2.444</v>
@@ -4839,7 +4839,7 @@
       </c>
       <c r="H82" s="4"/>
       <c r="I82" s="78">
-        <v>298</v>
+        <v>0</v>
       </c>
       <c r="J82" s="79">
         <v>2.804</v>
@@ -4877,7 +4877,7 @@
       </c>
       <c r="H83" s="4"/>
       <c r="I83" s="78">
-        <v>298</v>
+        <v>0</v>
       </c>
       <c r="J83" s="79">
         <v>3.06</v>
@@ -4915,7 +4915,7 @@
       </c>
       <c r="H84" s="4"/>
       <c r="I84" s="78">
-        <v>298</v>
+        <v>0</v>
       </c>
       <c r="J84" s="79">
         <v>3.462</v>
@@ -4953,7 +4953,7 @@
       </c>
       <c r="H85" s="4"/>
       <c r="I85" s="78">
-        <v>298</v>
+        <v>0</v>
       </c>
       <c r="J85" s="79">
         <v>2.365</v>
@@ -4991,7 +4991,7 @@
       </c>
       <c r="H86" s="4"/>
       <c r="I86" s="78">
-        <v>298</v>
+        <v>0</v>
       </c>
       <c r="J86" s="79">
         <v>2.313</v>
@@ -5029,7 +5029,7 @@
       </c>
       <c r="H87" s="4"/>
       <c r="I87" s="78">
-        <v>298</v>
+        <v>0</v>
       </c>
       <c r="J87" s="79">
         <v>2.298</v>
@@ -5067,7 +5067,7 @@
       </c>
       <c r="H88" s="4"/>
       <c r="I88" s="78">
-        <v>298</v>
+        <v>0</v>
       </c>
       <c r="J88" s="79">
         <v>2.261</v>
@@ -5105,7 +5105,7 @@
       </c>
       <c r="H89" s="4"/>
       <c r="I89" s="78">
-        <v>298</v>
+        <v>0</v>
       </c>
       <c r="J89" s="79">
         <v>2.554</v>
@@ -5143,7 +5143,7 @@
       </c>
       <c r="H90" s="4"/>
       <c r="I90" s="78">
-        <v>298</v>
+        <v>0</v>
       </c>
       <c r="J90" s="79">
         <v>2.638</v>
@@ -5181,7 +5181,7 @@
       </c>
       <c r="H91" s="4"/>
       <c r="I91" s="78">
-        <v>298</v>
+        <v>0</v>
       </c>
       <c r="J91" s="79">
         <v>2.331</v>
@@ -5219,7 +5219,7 @@
       </c>
       <c r="H92" s="4"/>
       <c r="I92" s="78">
-        <v>298</v>
+        <v>0</v>
       </c>
       <c r="J92" s="79">
         <v>2.51</v>
@@ -5257,7 +5257,7 @@
       </c>
       <c r="H93" s="4"/>
       <c r="I93" s="78">
-        <v>298</v>
+        <v>0</v>
       </c>
       <c r="J93" s="79">
         <v>1.865</v>
@@ -5295,7 +5295,7 @@
       </c>
       <c r="H94" s="4"/>
       <c r="I94" s="78">
-        <v>298</v>
+        <v>0</v>
       </c>
       <c r="J94" s="79">
         <v>2.148</v>
@@ -5333,7 +5333,7 @@
       </c>
       <c r="H95" s="4"/>
       <c r="I95" s="78">
-        <v>298</v>
+        <v>0</v>
       </c>
       <c r="J95" s="79">
         <v>2.236</v>
@@ -5371,7 +5371,7 @@
       </c>
       <c r="H96" s="4"/>
       <c r="I96" s="78">
-        <v>298</v>
+        <v>0</v>
       </c>
       <c r="J96" s="79">
         <v>2.255</v>
@@ -5409,7 +5409,7 @@
       </c>
       <c r="H97" s="4"/>
       <c r="I97" s="78">
-        <v>298</v>
+        <v>0</v>
       </c>
       <c r="J97" s="79">
         <v>2.247</v>
@@ -5447,7 +5447,7 @@
       </c>
       <c r="H98" s="4"/>
       <c r="I98" s="78">
-        <v>298</v>
+        <v>0</v>
       </c>
       <c r="J98" s="79">
         <v>2.731</v>
@@ -5485,7 +5485,7 @@
       </c>
       <c r="H99" s="4"/>
       <c r="I99" s="78">
-        <v>298</v>
+        <v>0</v>
       </c>
       <c r="J99" s="79">
         <v>1.816</v>
@@ -5523,7 +5523,7 @@
       </c>
       <c r="H100" s="4"/>
       <c r="I100" s="78">
-        <v>298</v>
+        <v>0</v>
       </c>
       <c r="J100" s="79">
         <v>1.768</v>
@@ -5561,7 +5561,7 @@
       </c>
       <c r="H101" s="4"/>
       <c r="I101" s="78">
-        <v>298</v>
+        <v>0</v>
       </c>
       <c r="J101" s="79">
         <v>1.81</v>
@@ -5599,7 +5599,7 @@
       </c>
       <c r="H102" s="4"/>
       <c r="I102" s="78">
-        <v>298</v>
+        <v>0</v>
       </c>
       <c r="J102" s="79">
         <v>1.752</v>
@@ -5637,7 +5637,7 @@
       </c>
       <c r="H103" s="4"/>
       <c r="I103" s="78">
-        <v>298</v>
+        <v>0</v>
       </c>
       <c r="J103" s="79">
         <v>1.817</v>
@@ -5675,7 +5675,7 @@
       </c>
       <c r="H104" s="4"/>
       <c r="I104" s="78">
-        <v>298</v>
+        <v>0</v>
       </c>
       <c r="J104" s="79">
         <v>1.885</v>

--- a/Lucie_USF_and_SURF_Data.xlsx
+++ b/Lucie_USF_and_SURF_Data.xlsx
@@ -269,7 +269,7 @@
     <t>DOI</t>
   </si>
   <si>
-    <t>Fracture Strain (%)</t>
+    <t>Col1</t>
   </si>
   <si>
     <t>Col2</t>
